--- a/TestOutput/TestExecutionLogs.xlsx
+++ b/TestOutput/TestExecutionLogs.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="43">
   <si>
     <t>Searching for hospitals in: Bangalore</t>
   </si>
@@ -94,6 +94,68 @@
   </si>
   <si>
     <t>Invalid Email ID1</t>
+  </si>
+  <si>
+    <t>Error during search: Expected condition failed: waiting for presence of element located by: By.xpath: //h2[@class='line-1'] (tried for 15 second(s) with 500 milliseconds interval)</t>
+  </si>
+  <si>
+    <t>Error during search: Expected condition failed: waiting for element to be clickable: By.xpath: //div[contains(text(),'Bangalore')] (tried for 15 second(s) with 500 milliseconds interval)
+Build info: version: '4.33.0', revision: '2c6aaad03a'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 137.0.7151.69, chrome: {chromedriverVersion: 137.0.7151.119 (e0ac9d12dff..., userDataDir: C:\Users\2414384\AppData\Lo...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:63538}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:63538/devtoo..., se:cdpVersion: 137.0.7151.69, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 3b97d21b20e48ee2ad893319a3522ef7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hospital name: Manipal Hospital Varthur Road (formerly Columbia Asia Hospital)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hospital name: Manipal Hospitals</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hospital name: Motherhood Hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hospital name: Koshys Hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hospital name: Navachethana Hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hospital name: Apollo Spectra Hospitals</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hospital name: Trilife Hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hospital name: Apollo Cradle &amp; Children’s Hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hospital name: Manipal Hospital</t>
+  </si>
+  <si>
+    <t>filtered hospital: Manipal Hospital Varthur Road (formerly Columbia Asia Hospital)</t>
+  </si>
+  <si>
+    <t>filtered hospital: Manipal Hospitals</t>
+  </si>
+  <si>
+    <t>filtered hospital: Motherhood Hospital</t>
+  </si>
+  <si>
+    <t>filtered hospital: Koshys Hospital</t>
+  </si>
+  <si>
+    <t>filtered hospital: Apollo Spectra Hospitals</t>
+  </si>
+  <si>
+    <t>filtered hospital: Trilife Hospital</t>
+  </si>
+  <si>
+    <t>filtered hospital: Apollo Cradle &amp; Children’s Hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filtered hospitals list </t>
   </si>
 </sst>
 </file>
@@ -466,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -479,42 +541,97 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>6</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -529,103 +646,21 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TestOutput/TestExecutionLogs.xlsx
+++ b/TestOutput/TestExecutionLogs.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="43">
   <si>
     <t>Searching for hospitals in: Bangalore</t>
   </si>
@@ -646,7 +646,53 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -660,7 +706,38 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>